--- a/kaggle/olympic_city_country.xlsx
+++ b/kaggle/olympic_city_country.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisekgautam/Desktop/DVN/Assignment 3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3F416-0029-F644-9BA4-59E6A4EFB99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{7947C4D3-E440-1240-9B64-216F7D399A60}"/>
+    <workbookView xWindow="2775" yWindow="1560" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t>City</t>
   </si>
@@ -264,13 +258,19 @@
   </si>
   <si>
     <t>Sankt Moritz</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>St Louis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -420,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,23 +614,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A5E60-B211-A746-8457-5A35AACE57BB}">
-  <dimension ref="A1:B64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -646,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -654,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -662,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -670,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -678,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -686,7 +690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -694,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -702,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -710,7 +714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -718,7 +722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -726,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -734,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -742,7 +746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -750,7 +754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -758,7 +762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -766,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -774,7 +778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -782,7 +786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -790,7 +794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -798,7 +802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -806,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -814,7 +818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -822,7 +826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -830,7 +834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -838,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -846,7 +850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -854,7 +858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -862,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -870,7 +874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -878,7 +882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -886,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -894,7 +898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -902,7 +906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -910,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -918,7 +922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -926,7 +930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -934,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -942,7 +946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -950,7 +954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -958,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -966,7 +970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -974,7 +978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -982,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -990,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="17.25">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
@@ -1134,8 +1138,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+    <row r="64" spans="1:2" ht="17.25">
+      <c r="A64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kaggle/olympic_city_country.xlsx
+++ b/kaggle/olympic_city_country.xlsx
@@ -29,12 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Athens</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>St Louis</t>
+  </si>
+  <si>
+    <t>City_Name</t>
+  </si>
+  <si>
+    <t>Host_Country</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -636,530 +636,530 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/kaggle/olympic_city_country.xlsx
+++ b/kaggle/olympic_city_country.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>Athens</t>
   </si>
@@ -614,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -764,401 +764,393 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.25">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17.25">
-      <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>73</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>73</v>
+    <row r="62" spans="1:2" ht="17.25">
+      <c r="A62" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.25">
-      <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" t="s">
         <v>5</v>
       </c>
     </row>
